--- a/Descriptores_Etapa1_ATPEduFis_ATPEduEspe/ATP Educación Especial/ATP_ESPECIAL..xlsx
+++ b/Descriptores_Etapa1_ATPEduFis_ATPEduEspe/ATP Educación Especial/ATP_ESPECIAL..xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\afchavez\Desktop\Adrifelcha_Work\Junio_2018\Descriptores_Etapa1_ATPEduFis_ATPEduEspe\ATP Educación Especial\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9375" tabRatio="743"/>
   </bookViews>
@@ -19,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ATP-ESPECIAL'!$A$1:$S$133</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'ATP-ESPECIAL'!$1:$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -503,7 +498,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,7 +572,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,6 +639,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -685,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -773,10 +780,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -801,6 +804,17 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -919,7 +933,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -954,7 +968,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1165,10 +1179,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S135"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="50" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="50" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G129" sqref="G129:G132"/>
+      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1218,26 +1232,26 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:19" s="5" customFormat="1" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
     </row>
     <row r="6" spans="1:19" s="5" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:19" s="21" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1347,7 +1361,7 @@
       <c r="I9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="32" t="s">
         <v>111</v>
       </c>
       <c r="K9" s="12" t="s">
@@ -1406,7 +1420,7 @@
       <c r="I10" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="32" t="s">
         <v>111</v>
       </c>
       <c r="K10" s="12" t="s">
@@ -1465,7 +1479,7 @@
       <c r="I11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="32" t="s">
         <v>111</v>
       </c>
       <c r="K11" s="12" t="s">
@@ -1512,7 +1526,7 @@
       <c r="I12" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="32" t="s">
         <v>113</v>
       </c>
       <c r="K12" s="12" t="s">
@@ -1630,7 +1644,7 @@
       <c r="I14" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="31" t="s">
         <v>115</v>
       </c>
       <c r="K14" s="12" t="s">
@@ -1689,7 +1703,7 @@
       <c r="I15" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="31" t="s">
         <v>115</v>
       </c>
       <c r="K15" s="12" t="s">
@@ -1748,7 +1762,7 @@
       <c r="I16" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="31" t="s">
         <v>115</v>
       </c>
       <c r="K16" s="12" t="s">
@@ -1807,7 +1821,7 @@
       <c r="I17" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="31" t="s">
         <v>115</v>
       </c>
       <c r="K17" s="12" t="s">
@@ -1854,7 +1868,7 @@
       <c r="I18" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="31" t="s">
         <v>112</v>
       </c>
       <c r="K18" s="12" t="s">
@@ -1904,7 +1918,7 @@
       <c r="F19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="30" t="s">
         <v>36</v>
       </c>
       <c r="H19" s="12">
@@ -1963,7 +1977,7 @@
       <c r="F20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="30" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="12">
@@ -2022,7 +2036,7 @@
       <c r="F21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="30" t="s">
         <v>37</v>
       </c>
       <c r="H21" s="12">
@@ -2081,7 +2095,7 @@
       <c r="F22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="30" t="s">
         <v>37</v>
       </c>
       <c r="H22" s="12">
@@ -2128,7 +2142,7 @@
       <c r="F23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="30" t="s">
         <v>37</v>
       </c>
       <c r="H23" s="12">
@@ -2234,7 +2248,7 @@
       <c r="F25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="29" t="s">
         <v>39</v>
       </c>
       <c r="H25" s="12">
@@ -2293,7 +2307,7 @@
       <c r="F26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="29" t="s">
         <v>39</v>
       </c>
       <c r="H26" s="12">
@@ -2340,7 +2354,7 @@
       <c r="F27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="29" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="12">
@@ -2387,7 +2401,7 @@
       <c r="F28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="29" t="s">
         <v>39</v>
       </c>
       <c r="H28" s="12">
@@ -2552,7 +2566,7 @@
       <c r="F31" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="30" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="12">
@@ -2611,7 +2625,7 @@
       <c r="F32" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="30" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="12">
@@ -2658,7 +2672,7 @@
       <c r="F33" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="30" t="s">
         <v>40</v>
       </c>
       <c r="H33" s="12">
@@ -2832,7 +2846,7 @@
       <c r="I36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="36" t="s">
         <v>53</v>
       </c>
       <c r="K36" s="12" t="s">
@@ -3386,7 +3400,7 @@
       <c r="I46" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J46" s="27" t="s">
+      <c r="J46" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K46" s="12" t="s">
@@ -3445,7 +3459,7 @@
       <c r="I47" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J47" s="27" t="s">
+      <c r="J47" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K47" s="12" t="s">
@@ -3504,7 +3518,7 @@
       <c r="I48" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="27" t="s">
+      <c r="J48" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K48" s="12" t="s">
@@ -3551,7 +3565,7 @@
       <c r="I49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="27" t="s">
+      <c r="J49" s="26" t="s">
         <v>76</v>
       </c>
       <c r="K49" s="12" t="s">
@@ -3728,7 +3742,7 @@
       <c r="I52" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="J52" s="32" t="s">
+      <c r="J52" s="31" t="s">
         <v>123</v>
       </c>
       <c r="K52" s="12" t="s">
@@ -3787,7 +3801,7 @@
       <c r="I53" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="J53" s="32" t="s">
+      <c r="J53" s="31" t="s">
         <v>123</v>
       </c>
       <c r="K53" s="12" t="s">
@@ -3846,7 +3860,7 @@
       <c r="I54" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="J54" s="32" t="s">
+      <c r="J54" s="31" t="s">
         <v>132</v>
       </c>
       <c r="K54" s="12" t="s">
@@ -4235,7 +4249,7 @@
       <c r="I61" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J61" s="15" t="s">
+      <c r="J61" s="35" t="s">
         <v>124</v>
       </c>
       <c r="K61" s="12" t="s">
@@ -4827,7 +4841,7 @@
       <c r="F72" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G72" s="34" t="s">
+      <c r="G72" s="33" t="s">
         <v>57</v>
       </c>
       <c r="H72" s="12">
@@ -4886,7 +4900,7 @@
       <c r="F73" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G73" s="34" t="s">
+      <c r="G73" s="33" t="s">
         <v>57</v>
       </c>
       <c r="H73" s="12">
@@ -5039,7 +5053,7 @@
       <c r="F76" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G76" s="13" t="s">
+      <c r="G76" s="27" t="s">
         <v>48</v>
       </c>
       <c r="H76" s="12">
@@ -5098,7 +5112,7 @@
       <c r="F77" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="27" t="s">
         <v>48</v>
       </c>
       <c r="H77" s="12">
@@ -5157,7 +5171,7 @@
       <c r="F78" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="G78" s="27" t="s">
         <v>48</v>
       </c>
       <c r="H78" s="14">
@@ -5204,7 +5218,7 @@
       <c r="F79" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G79" s="27" t="s">
         <v>48</v>
       </c>
       <c r="H79" s="12">
@@ -5263,7 +5277,7 @@
       <c r="F80" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="27" t="s">
         <v>48</v>
       </c>
       <c r="H80" s="12">
@@ -5322,7 +5336,7 @@
       <c r="F81" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G81" s="13" t="s">
+      <c r="G81" s="27" t="s">
         <v>48</v>
       </c>
       <c r="H81" s="12">
@@ -5487,7 +5501,7 @@
       <c r="F84" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G84" s="13" t="s">
+      <c r="G84" s="27" t="s">
         <v>48</v>
       </c>
       <c r="H84" s="12">
@@ -5605,7 +5619,7 @@
       <c r="F86" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G86" s="29" t="s">
+      <c r="G86" s="28" t="s">
         <v>49</v>
       </c>
       <c r="H86" s="12">
@@ -5664,7 +5678,7 @@
       <c r="F87" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G87" s="29" t="s">
+      <c r="G87" s="28" t="s">
         <v>49</v>
       </c>
       <c r="H87" s="12">
@@ -5723,7 +5737,7 @@
       <c r="F88" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G88" s="28" t="s">
         <v>49</v>
       </c>
       <c r="H88" s="12">
@@ -5841,7 +5855,7 @@
       <c r="F90" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G90" s="13" t="s">
+      <c r="G90" s="33" t="s">
         <v>60</v>
       </c>
       <c r="H90" s="12">
@@ -7644,7 +7658,7 @@
       <c r="F123" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G123" s="29" t="s">
+      <c r="G123" s="28" t="s">
         <v>71</v>
       </c>
       <c r="H123" s="12">
@@ -7703,7 +7717,7 @@
       <c r="F124" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G124" s="29" t="s">
+      <c r="G124" s="28" t="s">
         <v>71</v>
       </c>
       <c r="H124" s="12">
@@ -7762,7 +7776,7 @@
       <c r="F125" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G125" s="29" t="s">
+      <c r="G125" s="28" t="s">
         <v>71</v>
       </c>
       <c r="H125" s="12">
@@ -7986,7 +8000,7 @@
       <c r="F129" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G129" s="28" t="s">
+      <c r="G129" s="27" t="s">
         <v>73</v>
       </c>
       <c r="H129" s="12">
@@ -8045,7 +8059,7 @@
       <c r="F130" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G130" s="28" t="s">
+      <c r="G130" s="27" t="s">
         <v>73</v>
       </c>
       <c r="H130" s="12">
@@ -8104,7 +8118,7 @@
       <c r="F131" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G131" s="28" t="s">
+      <c r="G131" s="27" t="s">
         <v>73</v>
       </c>
       <c r="H131" s="12">
@@ -8163,7 +8177,7 @@
       <c r="F132" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G132" s="28" t="s">
+      <c r="G132" s="27" t="s">
         <v>73</v>
       </c>
       <c r="H132" s="12">
